--- a/data/income_statement/2digits/size/51_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/51_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>51-Air transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>51-Air transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,218 +841,248 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11994.27496</v>
+        <v>17186.68834</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>19656.50735</v>
+        <v>25592.60317</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9676.87989</v>
+        <v>16129.10283</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>22883.13168</v>
+        <v>28469.36594</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>18864.61714</v>
+        <v>25720.07011</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>45030.61207</v>
+        <v>47507.14305</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14916.64447</v>
+        <v>20319.03265</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>24219.83628</v>
+        <v>31575.43838</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>25108.20472</v>
+        <v>29728.60668</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>86302.49631999999</v>
+        <v>101179.59037</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>106221.78787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>140301.56636</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>129642.202</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4174.83368</v>
+        <v>8028.63291</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6060.77759</v>
+        <v>10636.0273</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5283.75738</v>
+        <v>10624.83961</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>14798.32149</v>
+        <v>19271.8041</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11599.90733</v>
+        <v>17670.695</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>29345.10936</v>
+        <v>31663.08825</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8788.67837</v>
+        <v>13560.7808</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18547.55087</v>
+        <v>24544.0293</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>17680.27381</v>
+        <v>21903.19698</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>34298.07215</v>
+        <v>46390.56431</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>31934.34109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>46712.7749</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>58342.733</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7596.4</v>
+        <v>8244.50563</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>13572.05228</v>
+        <v>14928.04417</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4188.2</v>
+        <v>5247.62461</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7580.111510000001</v>
+        <v>8633.235919999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>7241.821</v>
+        <v>7911.13958</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>15230.52781</v>
+        <v>15359.06891</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6027.75112</v>
+        <v>6028.37077</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5601.07848</v>
+        <v>5961.14946</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7312.4163</v>
+        <v>7611.57696</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>47929.49794</v>
+        <v>50184.61171</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>66193.35256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>82843.95567</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>61002.704</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>223.04128</v>
+        <v>913.5498</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>23.67748</v>
+        <v>28.5317</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>204.92251</v>
+        <v>256.63861</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>504.69868</v>
+        <v>564.3259199999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>22.88881</v>
+        <v>138.23553</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>454.9749</v>
+        <v>484.98589</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>100.21498</v>
+        <v>729.88108</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>71.20693</v>
+        <v>1070.25962</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>115.51461</v>
+        <v>213.83274</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4074.92623</v>
+        <v>4604.41435</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8094.09422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10744.83579</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10296.765</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4.832409999999999</v>
+        <v>8.931340000000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1.79021</v>
+        <v>15.75134</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2.29793</v>
+        <v>21.35089</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>146.90367</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2.67961</v>
+        <v>2.98762</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>3.39133</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>0</v>
+        <v>24.56507</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>0</v>
+        <v>1.28898</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>204.00914</v>
+        <v>255.3307</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>254.10394</v>
+        <v>254.10395</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>1651.03246</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>3033.505</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1.34408</v>
+        <v>5.44301</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1.79021</v>
+        <v>15.75134</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2.29793</v>
+        <v>21.35089</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>146.90367</v>
@@ -1163,25 +1094,30 @@
         <v>3.39133</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>0</v>
+        <v>24.56507</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>0</v>
+        <v>1.28898</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>203.90914</v>
+        <v>255.2307</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>254.10394</v>
+        <v>254.10395</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>1651.03246</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>3023.595</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1196,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>0</v>
+        <v>0.30801</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3.48833</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11989.44255</v>
+        <v>17177.757</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>19654.71714</v>
+        <v>25576.85183</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9674.581960000001</v>
+        <v>16107.75194</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>22736.22801</v>
+        <v>28322.46227</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>18861.93753</v>
+        <v>25717.08249</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>45027.22074</v>
+        <v>47503.75172</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14916.64447</v>
+        <v>20294.46758</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24219.83628</v>
+        <v>31574.1494</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>24904.19558</v>
+        <v>29473.27598</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>86048.39237999999</v>
+        <v>100925.48642</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>104570.75541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>138650.5339</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>126608.697</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>12431.16942</v>
+        <v>24617.97005</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>20617.65004</v>
+        <v>34680.74286</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8446.734109999999</v>
+        <v>17554.72043</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>20640.19547</v>
+        <v>30984.80036</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16682.4345</v>
+        <v>29866.40345</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>41634.4051</v>
+        <v>46527.42762</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14703.61117</v>
+        <v>27773.59517</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>23520.07712</v>
+        <v>38404.49889</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>25146.91574</v>
+        <v>42747.68373</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>80448.24176</v>
+        <v>113031.04618</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>91523.23719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>144009.3426</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>127987.098</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>85.12208</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>164.695</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>0</v>
+        <v>149.22144</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1.26499</v>
+        <v>133.60751</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9.4709</v>
+        <v>9.5451</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>31.01273</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1151.84877</v>
+        <v>1326.62535</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2127.0303</v>
+        <v>2130.87294</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3803.97351</v>
+        <v>3822.08775</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>161.05784</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4125.104240000001</v>
+        <v>4549.20121</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>19848.00825</v>
+        <v>23236.14535</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5730.99289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7436.168040000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1122.981</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>12431.16942</v>
+        <v>24468.74861</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>20616.38505</v>
+        <v>34547.13535</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8437.263209999999</v>
+        <v>17545.17533</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>20574.74725</v>
+        <v>30919.35214</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>15244.21702</v>
+        <v>28252.8386</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>39189.27376</v>
+        <v>44077.92509</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>10765.98766</v>
+        <v>23763.16336</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>23345.26457</v>
+        <v>38228.90268000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>20847.71099</v>
+        <v>38024.38201</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>60583.52193</v>
+        <v>89766.88490999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>85335.78254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>130173.67252</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>126699.422</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1469,109 +1440,124 @@
         <v>34.43549</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>29.91832</v>
+        <v>30.48911</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>136.16692</v>
+        <v>136.69547</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>133.65</v>
+        <v>188.34406</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>0</v>
+        <v>0.78366</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>162.45762</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>0</v>
+        <v>11.30434</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>371.33968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6314.37996</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>-441.72687</v>
+        <v>-7440.213049999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>-962.9329000000001</v>
+        <v>-9103.891029999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1227.84785</v>
+        <v>-1446.96849</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2096.03254</v>
+        <v>-2662.33809</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2179.50303</v>
+        <v>-4149.32096</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3392.81564</v>
+        <v>976.3240999999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>213.0333</v>
+        <v>-7479.12759</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>699.7591600000001</v>
+        <v>-6830.349490000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>-242.72016</v>
+        <v>-13274.40775</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5600.15062</v>
+        <v>-12105.55976</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13047.51822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>-5358.8087</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>-1378.401</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4024.9345</v>
+        <v>18722.09914</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5032.672560000001</v>
+        <v>14271.24552</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5428.413519999999</v>
+        <v>16108.87713</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5612.80383</v>
+        <v>15062.79021</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3095.02687</v>
+        <v>14977.67133</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2639.02434</v>
+        <v>4985.43467</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1273.72024</v>
+        <v>14940.05145</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2593.42476</v>
+        <v>20342.32035</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2005.45958</v>
+        <v>9057.920870000002</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>15914.15693</v>
+        <v>73950.82502</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12465.25582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>27749.67849</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>75355.784</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,188 +1592,213 @@
       <c r="M21" s="48" t="n">
         <v>43.97387000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>103.27423</v>
+        <v>1221.54029</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>194.2179</v>
+        <v>702.80935</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>957.04012</v>
+        <v>1789.36965</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1000.25552</v>
+        <v>1029.40324</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>278.37814</v>
+        <v>363.37761</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>175.96278</v>
+        <v>216.60807</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>29.734</v>
+        <v>2173.8273</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>210.2898</v>
+        <v>236.74313</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>201.23889</v>
+        <v>207.05831</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>185.35698</v>
+        <v>4547.7065</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>419.40846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2282.88521</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5182.056</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3921.66027</v>
+        <v>17500.55885</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4838.45466</v>
+        <v>13568.43617</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4471.3734</v>
+        <v>14319.50748</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4612.54831</v>
+        <v>14033.38697</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2816.64873</v>
+        <v>14614.29372</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2463.06156</v>
+        <v>4768.8266</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1243.98624</v>
+        <v>12766.22415</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2383.13496</v>
+        <v>20105.57722</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1804.22069</v>
+        <v>8850.862560000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>15728.79995</v>
+        <v>69403.11851999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>12001.87349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25422.81941</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>70173.728</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-4466.66137</v>
+        <v>-26162.31219</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-5995.60546</v>
+        <v>-23375.13655</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-4200.565670000001</v>
+        <v>-17555.84562</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-3516.77129</v>
+        <v>-17725.1283</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-915.5238400000001</v>
+        <v>-19126.99229</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>753.7913000000001</v>
+        <v>-4009.11057</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1060.68694</v>
+        <v>-22419.17904</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1893.6656</v>
+        <v>-27172.66984</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2248.17974</v>
+        <v>-22332.32862</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-10314.00631</v>
+        <v>-86056.38478000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>582.2624000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-33108.48719</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-76734.185</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>446.3172</v>
+        <v>7543.664220000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>757.3374099999999</v>
+        <v>12064.75179</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>594.3342700000001</v>
+        <v>5774.179819999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2430.39324</v>
+        <v>7660.95078</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>539.7456</v>
+        <v>6987.13658</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1830.16863</v>
+        <v>6830.791510000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>539.27225</v>
+        <v>17253.24973</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>678.34411</v>
+        <v>12170.07235</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>819.39724</v>
+        <v>18054.01449</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11454.06171</v>
+        <v>93382.04872999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10346.43552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>46124.23218</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>68779.34</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0.00262</v>
+        <v>382.98545</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>384.59499</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>877.33834</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>82.619</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>80.26406</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>497.76884</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>3372.47928</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>50.04868</v>
+        <v>1662.50161</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5.19516</v>
+        <v>15.6731</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>15.42707</v>
+        <v>229.33057</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>16.44957</v>
+        <v>395.46267</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>42.10032</v>
+        <v>478.36083</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>91.43871</v>
+        <v>490.72626</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15.47467</v>
+        <v>750.4560600000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5.75863</v>
+        <v>973.16209</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>322.17115</v>
+        <v>1389.91435</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>335.9243</v>
+        <v>4245.97937</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>189.87117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3831.87697</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1948.734</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>10.31722</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>577.948</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,35 +1988,40 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0</v>
+        <v>33.77507</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0</v>
+        <v>0.19559</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0</v>
+        <v>1.25692</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0</v>
+        <v>1.8953</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5.99499</v>
+        <v>12.69802</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.76344</v>
+        <v>0.7635</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0</v>
+        <v>13.99347</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0</v>
+        <v>24.78213</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>0</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>9.27233</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>229.592</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>372.94658</v>
+        <v>5044.96261</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>692.0484299999999</v>
+        <v>11544.40692</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>231.15921</v>
+        <v>4283.7405</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2305.09361</v>
+        <v>6801.19462</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>395.41709</v>
+        <v>3931.83211</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>813.0335700000001</v>
+        <v>4910.42296</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>486.14265</v>
+        <v>12989.156</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>586.0317700000001</v>
+        <v>11062.57368</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>385.15291</v>
+        <v>15354.64578</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9892.740639999998</v>
+        <v>87870.29859999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7340.815009999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>39041.13789</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>62614.154</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>23.31932</v>
+        <v>419.43948</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>59.94378</v>
+        <v>119.73115</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5.06226</v>
+        <v>39.82776</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>94.94189999999999</v>
+        <v>365.87103</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>96.2332</v>
+        <v>2483.98156</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>892.24614</v>
+        <v>898.42318</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>32.90284</v>
+        <v>122.41283</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>45.31328</v>
+        <v>68.31401999999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>112.07318</v>
+        <v>1309.45436</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>394.26061</v>
+        <v>434.6346</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2796.15979</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3231.62777</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3408.912</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>242.13529</v>
+        <v>4600.08112</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>479.19143</v>
+        <v>7432.26952</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6019.50196</v>
+        <v>13285.55477</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1196.74123</v>
+        <v>3197.94695</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>405.89407</v>
+        <v>7912.15009</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>597.46821</v>
+        <v>13807.741</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>453.38224</v>
+        <v>24476.80018</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1093.69603</v>
+        <v>12604.44214</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>625.88462</v>
+        <v>34429.81504</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>25165.57027</v>
+        <v>104453.52966</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8169.5949</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>35066.65393</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>86071.458</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2.74293</v>
@@ -2207,7 +2273,7 @@
         <v>0.84129</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>0.27011</v>
+        <v>1.73473</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>0</v>
@@ -2216,25 +2282,30 @@
         <v>0</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>157.10966</v>
+        <v>157.4637</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>544.57475</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5.500100000000001</v>
+        <v>9.27702</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>35.65122</v>
+        <v>44.72166</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1367.98068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1375.14366</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>37.673</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1.26654</v>
@@ -2261,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>0</v>
+        <v>17760.5</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>219.72501</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>67.47</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2288,7 +2364,7 @@
         <v>144.64311</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>17.5216</v>
+        <v>19.71206</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
@@ -2297,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>21.71995</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>234.33681</v>
+        <v>4473.92443</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>338.76708</v>
+        <v>7279.563689999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6017.47837</v>
+        <v>13140.84721</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1046.07412</v>
+        <v>3032.7365</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>378.41678</v>
+        <v>7860.24609</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>584.83942</v>
+        <v>5140.350939999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>294.34793</v>
+        <v>22733.22333</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>537.08101</v>
+        <v>12019.33392</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>618.68558</v>
+        <v>15294.11116</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>24448.22243</v>
+        <v>103383.97974</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5351.83146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>32222.06134</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>85664.319</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,254 +2516,289 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3.78901</v>
+        <v>122.14722</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>0.85664</v>
+        <v>13.13812</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1.1823</v>
+        <v>143.86627</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5.75389</v>
+        <v>18.83261</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2.2847</v>
+        <v>24.52095</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>0.9965000000000001</v>
+        <v>8655.75777</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1.92465</v>
+        <v>1586.11315</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12.04027</v>
+        <v>40.52476</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1.69894</v>
+        <v>1365.92686</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>461.9716100000001</v>
+        <v>805.10325</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1428.06281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1447.72898</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>301.525</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>334.19342</v>
+        <v>2586.9419</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>986.70628</v>
+        <v>5833.38162</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8326.685369999999</v>
+        <v>9701.836529999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>290.88005</v>
+        <v>3133.94201</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2795.68732</v>
+        <v>5028.511219999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2227.63044</v>
+        <v>3197.62248</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3312.89607</v>
+        <v>5063.33922</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3497.31001</v>
+        <v>12285.09059</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1793.8511</v>
+        <v>4542.41575</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10797.49534</v>
+        <v>20415.92446</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>271.85885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12319.22022</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11863.818</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>275.25005</v>
+        <v>2527.99853</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>986.70628</v>
+        <v>2727.78206</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1818.61966</v>
+        <v>3193.77082</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>282.62688</v>
+        <v>2731.07052</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>119.21295</v>
+        <v>1982.31458</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>430.98148</v>
+        <v>1015.00429</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>120.71212</v>
+        <v>1197.22875</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>39.41649</v>
+        <v>1897.16685</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>37.4908</v>
+        <v>2573.1527</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2526.26356</v>
+        <v>11594.12452</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>271.85885</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>12047.0485</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>11853.579</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>58.94337</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>0</v>
+        <v>3105.59956</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>6508.06571</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8.253170000000001</v>
+        <v>402.87149</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2676.47437</v>
+        <v>3046.19664</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1796.64896</v>
+        <v>2182.61819</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3192.18395</v>
+        <v>3866.11047</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3457.89352</v>
+        <v>10387.92374</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1756.3603</v>
+        <v>1969.26305</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>8271.23178</v>
+        <v>8821.799939999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>272.17172</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>10.239</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-4596.67288</v>
+        <v>-25805.67099</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6704.16576</v>
+        <v>-24576.0359</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-17952.41873</v>
+        <v>-34769.0571</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-2573.99933</v>
+        <v>-16396.06648</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-3577.35963</v>
+        <v>-25080.51702</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-241.13872</v>
+        <v>-14183.68254</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4287.693</v>
+        <v>-34706.06870999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5806.32753</v>
+        <v>-39892.13022</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3848.51822</v>
+        <v>-43250.54492</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-34823.01021</v>
+        <v>-117543.79017</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2487.24417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-34370.12916</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-105890.121</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2.92365</v>
+        <v>1136.7882</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>15.77377</v>
+        <v>389.19123</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>16631.12664</v>
+        <v>17153.51683</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>119.45828</v>
+        <v>531.8652499999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40.07308999999999</v>
+        <v>170.19988</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7690.55378</v>
+        <v>7727.09532</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>285.26421</v>
+        <v>78823.80856</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>187.31268</v>
+        <v>31564.9981</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>292.4867</v>
+        <v>9085.81668</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7450.52193</v>
+        <v>105816.26452</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2369.67895</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>71542.09041999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>24258.268</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0</v>
+        <v>6.1388</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0</v>
+        <v>0.35308</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>0</v>
@@ -2684,7 +2810,7 @@
         <v>15.03389</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>1.78126</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>94.38947</v>
@@ -2693,109 +2819,124 @@
         <v>0</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0</v>
+        <v>18.97502</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>13.00969</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>110.248</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2.92365</v>
+        <v>1136.7882</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15.77377</v>
+        <v>383.05243</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>16631.12664</v>
+        <v>17153.16375</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>119.45828</v>
+        <v>531.8652499999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>40.07307</v>
+        <v>170.19986</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7675.51989</v>
+        <v>7712.06143</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>285.26421</v>
+        <v>78822.0273</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>92.92321000000001</v>
+        <v>31470.60863</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>292.4867</v>
+        <v>9085.81668</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7450.52193</v>
+        <v>105797.2895</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2369.67895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>71529.08072999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>24148.02</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>64.20227</v>
+        <v>723.7339599999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>103.38558</v>
+        <v>34630.9534</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>71264.83804999999</v>
+        <v>73230.93137000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4149.18183</v>
+        <v>6667.00542</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>369.55462</v>
+        <v>7358.22361</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>13794.95562</v>
+        <v>18165.76115</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>280.1093100000001</v>
+        <v>3900.87764</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1824.18812</v>
+        <v>7652.36792</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>233.47923</v>
+        <v>1189.57041</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>11938.73875</v>
+        <v>48497.24787</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4563.042890000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>15008.73613</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>23866.798</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0</v>
+        <v>1.11646</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0</v>
+        <v>10654.07801</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>210.58033</v>
+        <v>1510.53642</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8.501299999999999</v>
+        <v>1536.84205</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>5.2954</v>
@@ -2804,7 +2945,7 @@
         <v>196.76123</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>35.32175</v>
+        <v>1646.86473</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>36.73996</v>
@@ -2813,205 +2954,233 @@
         <v>671.56002</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>679.1324000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>684.12902</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>340.599</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>0.45291</v>
+        <v>59.98932</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1.5561</v>
+        <v>14.8888</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>36.78772</v>
+        <v>50.4652</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>24.7624</v>
+        <v>184.68547</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>23.71389</v>
+        <v>49.92052</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>34.83797</v>
+        <v>49.35637000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>0</v>
+        <v>4.31385</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>1.67483</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5.18764</v>
+        <v>136.28067</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>21.94341</v>
+        <v>165.86435</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>112.51905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>201.19753</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>127.618</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>63.74936</v>
+        <v>662.62818</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>101.82948</v>
+        <v>23961.98659</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>71228.05033</v>
+        <v>73180.46614999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3913.8391</v>
+        <v>4971.783530000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>337.33943</v>
+        <v>5771.46104</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13754.82225</v>
+        <v>18111.10938</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>83.34808</v>
+        <v>3699.80256</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1787.19154</v>
+        <v>6003.82836</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>191.55163</v>
+        <v>1016.54978</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11245.23532</v>
+        <v>47659.8235</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3771.39144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14123.40958</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>23398.581</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-4657.9515</v>
+        <v>-25392.61675</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-6791.777569999999</v>
+        <v>-58817.79807</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-72586.13013999999</v>
+        <v>-90846.47164</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-6603.72288</v>
+        <v>-22531.20665</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3906.84116</v>
+        <v>-32268.54075</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-6345.54056</v>
+        <v>-24622.34837</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4282.538100000001</v>
+        <v>40216.86220999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-7443.20297</v>
+        <v>-15979.50004</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-3789.51075</v>
+        <v>-35354.29865</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-39311.22703</v>
+        <v>-60224.77352</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>293.88023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>22163.22513</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-105498.651</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>31.28394</v>
+        <v>37.98179</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>32.99621</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>35.7946</v>
+        <v>60.74231</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>48.78054</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>105.39064</v>
+        <v>108.75084</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>101.91873</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7.567679999999999</v>
+        <v>2323.15455</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13.79794</v>
+        <v>35.36972</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>96.71559999999999</v>
+        <v>117.70803</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>343.72371</v>
+        <v>2663.22804</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>364.75209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13263.13368</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3133.105</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-4689.23544</v>
+        <v>-25430.59854</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-6824.77378</v>
+        <v>-58850.79428</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-72621.92474000002</v>
+        <v>-90907.21394999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-6652.50342</v>
+        <v>-22579.98719</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-4012.2318</v>
+        <v>-32377.29159</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-6447.45929</v>
+        <v>-24724.2671</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-4290.10578</v>
+        <v>37893.70766</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7457.00091</v>
+        <v>-16014.86976</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-3886.22635</v>
+        <v>-35472.00668</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-39654.95073999999</v>
+        <v>-62888.00156</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-70.87185999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8900.09145</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-108631.756</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>189</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>